--- a/MMR/Matchmaking Rating EpiGoal.xlsx
+++ b/MMR/Matchmaking Rating EpiGoal.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashura/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashura/Documents/Private/EpiGoals/MMR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1504BBE8-0B13-1249-A1E7-7CFE5C928457}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2C235B2-B7B6-F04F-B870-A56A378275FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="1220" windowWidth="25220" windowHeight="17260" activeTab="2" xr2:uid="{222141EE-F91F-B140-8153-15C7F9A324E7}"/>
+    <workbookView xWindow="0" yWindow="1220" windowWidth="25220" windowHeight="17260" activeTab="1" xr2:uid="{222141EE-F91F-B140-8153-15C7F9A324E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Tableau" sheetId="3" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="86">
   <si>
     <t>MATCHMAKING RATING</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Dariss</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
     <t>Marwann</t>
   </si>
   <si>
@@ -252,6 +249,54 @@
   </si>
   <si>
     <t>Joueur</t>
+  </si>
+  <si>
+    <t>Raoul</t>
+  </si>
+  <si>
+    <t>Kratos ^^</t>
+  </si>
+  <si>
+    <t>Surnom</t>
+  </si>
+  <si>
+    <t>juif</t>
+  </si>
+  <si>
+    <t>Voyou</t>
+  </si>
+  <si>
+    <t>Le Mineur</t>
+  </si>
+  <si>
+    <t>Le gain</t>
+  </si>
+  <si>
+    <t>L'arabe</t>
+  </si>
+  <si>
+    <t>Acteur de cul</t>
+  </si>
+  <si>
+    <t>Musclor</t>
+  </si>
+  <si>
+    <t>Migraine ophtalmique</t>
+  </si>
+  <si>
+    <t>Jumeau 1</t>
+  </si>
+  <si>
+    <t>Tête de reubeu en étant espagnol</t>
+  </si>
+  <si>
+    <t>Bite Cogne</t>
+  </si>
+  <si>
+    <t>kamel</t>
+  </si>
+  <si>
+    <t>lucas</t>
   </si>
 </sst>
 </file>
@@ -609,49 +654,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -659,24 +668,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -690,45 +681,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -737,100 +689,22 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -867,38 +741,8 @@
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
@@ -906,6 +750,204 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -931,56 +973,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1021,6 +1013,56 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1169,14 +1211,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5C822C9-EBAB-F94F-8D20-AFC9E6011313}" name="Tableau3" displayName="Tableau3" ref="E9:K23" totalsRowShown="0">
-  <autoFilter ref="E9:K23" xr:uid="{E5C822C9-EBAB-F94F-8D20-AFC9E6011313}"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{E5C822C9-EBAB-F94F-8D20-AFC9E6011313}" name="Tableau3" displayName="Tableau3" ref="E9:L23" totalsRowShown="0">
+  <autoFilter ref="E9:L23" xr:uid="{E5C822C9-EBAB-F94F-8D20-AFC9E6011313}"/>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{3D1C2E0E-3C47-4B49-8CD8-3F370F6F917B}" name="Nom du joueur"/>
     <tableColumn id="2" xr3:uid="{F9537EBD-3C89-724E-BE6C-41629FF6081A}" name="MMR"/>
     <tableColumn id="3" xr3:uid="{1F1E27ED-8593-8948-8119-2C3B70F412DF}" name="EPI"/>
@@ -1186,6 +1224,7 @@
     <tableColumn id="7" xr3:uid="{63215A3D-F4F5-6848-82C2-C22A5EE8DB62}" name="Rang" dataDxfId="28">
       <calculatedColumnFormula>INDEX(Rang!F:F, MATCH(G10, Rang!G:G, 1))</calculatedColumnFormula>
     </tableColumn>
+    <tableColumn id="8" xr3:uid="{F1F5243F-2290-094A-8272-59EF51E16645}" name="Surnom"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1206,9 +1245,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1246,7 +1285,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1352,7 +1391,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1494,7 +1533,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1503,10 +1542,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00AC0FF8-4596-E34F-BE62-3FA615F01590}">
   <sheetPr codeName="Feuil2"/>
-  <dimension ref="E9:K23"/>
+  <dimension ref="E9:L23"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="171" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="D6" zoomScale="171" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1516,9 +1555,9 @@
     <col min="11" max="11" width="18.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F9" t="s">
         <v>1</v>
@@ -1533,13 +1572,16 @@
         <v>4</v>
       </c>
       <c r="J9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="5:11" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="L9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E10" t="s">
         <v>5</v>
       </c>
@@ -1555,7 +1597,7 @@
       <c r="I10">
         <v>3</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="3">
         <f>IF(H10+I10&gt;0, H10/(H10+I10), "")</f>
         <v>0.5</v>
       </c>
@@ -1563,8 +1605,11 @@
         <f>INDEX(Rang!F:F, MATCH(G10, Rang!G:G, 1))</f>
         <v>Diamant I</v>
       </c>
-    </row>
-    <row r="11" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E11" t="s">
         <v>6</v>
       </c>
@@ -1580,7 +1625,7 @@
       <c r="I11">
         <v>3</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="3">
         <f>IF(H11+I11&gt;0, H11/(H11+I11), "")</f>
         <v>0.7</v>
       </c>
@@ -1588,8 +1633,11 @@
         <f>INDEX(Rang!F:F, MATCH(G11, Rang!G:G, 1))</f>
         <v>Emeraude IV</v>
       </c>
-    </row>
-    <row r="12" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E12" t="s">
         <v>7</v>
       </c>
@@ -1605,16 +1653,19 @@
       <c r="I12">
         <v>8</v>
       </c>
-      <c r="J12" s="13">
-        <f>IF(H12+I12&gt;0, (H12/(H12+I12)), "")</f>
+      <c r="J12" s="3">
+        <f t="shared" ref="J12:J21" si="0">IF(H12+I12&gt;0, (H12/(H12+I12)), "")</f>
         <v>0.66666666666666663</v>
       </c>
       <c r="K12" t="str">
         <f>INDEX(Rang!F:F, MATCH(G12, Rang!G:G, 1))</f>
         <v>Citrine IV</v>
       </c>
-    </row>
-    <row r="13" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E13" t="s">
         <v>8</v>
       </c>
@@ -1630,16 +1681,19 @@
       <c r="I13">
         <v>4</v>
       </c>
-      <c r="J13" s="13">
-        <f>IF(H13+I13&gt;0, (H13/(H13+I13)), "")</f>
+      <c r="J13" s="3">
+        <f t="shared" si="0"/>
         <v>0.78947368421052633</v>
       </c>
       <c r="K13" t="str">
         <f>INDEX(Rang!F:F, MATCH(G13, Rang!G:G, 1))</f>
         <v>Aigue-Marine II</v>
       </c>
-    </row>
-    <row r="14" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="14" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
         <v>9</v>
       </c>
@@ -1655,16 +1709,19 @@
       <c r="I14">
         <v>2</v>
       </c>
-      <c r="J14" s="13">
-        <f>IF(H14+I14&gt;0, (H14/(H14+I14)), "")</f>
+      <c r="J14" s="3">
+        <f t="shared" si="0"/>
         <v>0.7142857142857143</v>
       </c>
       <c r="K14" t="str">
         <f>INDEX(Rang!F:F, MATCH(G14, Rang!G:G, 1))</f>
         <v>Améthyste IV</v>
       </c>
-    </row>
-    <row r="15" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
         <v>10</v>
       </c>
@@ -1680,21 +1737,24 @@
       <c r="I15">
         <v>15</v>
       </c>
-      <c r="J15" s="13">
-        <f>IF(H15+I15&gt;0, (H15/(H15+I15)), "")</f>
+      <c r="J15" s="3">
+        <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
       <c r="K15" t="str">
         <f>INDEX(Rang!F:F, MATCH(G15, Rang!G:G, 1))</f>
         <v>Quartz IV</v>
       </c>
-    </row>
-    <row r="16" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E16" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F16">
-        <v>1800</v>
+        <v>2700</v>
       </c>
       <c r="G16">
         <v>2976</v>
@@ -1705,18 +1765,21 @@
       <c r="I16">
         <v>8</v>
       </c>
-      <c r="J16" s="13">
-        <f>IF(H16+I16&gt;0, (H16/(H16+I16)), "")</f>
+      <c r="J16" s="3">
+        <f t="shared" si="0"/>
         <v>0.55555555555555558</v>
       </c>
       <c r="K16" t="str">
         <f>INDEX(Rang!F:F, MATCH(G16, Rang!G:G, 1))</f>
         <v>Rubis III</v>
       </c>
-    </row>
-    <row r="17" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E17" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>1400</v>
@@ -1730,18 +1793,21 @@
       <c r="I17">
         <v>40</v>
       </c>
-      <c r="J17" s="13">
-        <f>IF(H17+I17&gt;0, (H17/(H17+I17)), "")</f>
+      <c r="J17" s="3">
+        <f t="shared" si="0"/>
         <v>0.50617283950617287</v>
       </c>
       <c r="K17" t="str">
         <f>INDEX(Rang!F:F, MATCH(G17, Rang!G:G, 1))</f>
         <v>Topaze IV</v>
       </c>
-    </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>1600</v>
@@ -1755,18 +1821,21 @@
       <c r="I18">
         <v>110</v>
       </c>
-      <c r="J18" s="13">
-        <f>IF(H18+I18&gt;0, (H18/(H18+I18)), "")</f>
+      <c r="J18" s="3">
+        <f t="shared" si="0"/>
         <v>0.47115384615384615</v>
       </c>
       <c r="K18" t="str">
         <f>INDEX(Rang!F:F, MATCH(G18, Rang!G:G, 1))</f>
         <v>Saphir III</v>
       </c>
-    </row>
-    <row r="19" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E19" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F19">
         <v>2600</v>
@@ -1780,18 +1849,21 @@
       <c r="I19">
         <v>30</v>
       </c>
-      <c r="J19" s="13">
-        <f>IF(H19+I19&gt;0, (H19/(H19+I19)), "")</f>
+      <c r="J19" s="3">
+        <f t="shared" si="0"/>
         <v>0.70297029702970293</v>
       </c>
       <c r="K19" t="str">
         <f>INDEX(Rang!F:F, MATCH(G19, Rang!G:G, 1))</f>
         <v>Grenat I</v>
       </c>
-    </row>
-    <row r="20" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F20">
         <v>2000</v>
@@ -1805,18 +1877,21 @@
       <c r="I20">
         <v>2</v>
       </c>
-      <c r="J20" s="13">
-        <f>IF(H20+I20&gt;0, (H20/(H20+I20)), "")</f>
+      <c r="J20" s="3">
+        <f t="shared" si="0"/>
         <v>0.96153846153846156</v>
       </c>
       <c r="K20" t="str">
         <f>INDEX(Rang!F:F, MATCH(G20, Rang!G:G, 1))</f>
         <v>Quartz III</v>
       </c>
-    </row>
-    <row r="21" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="5:12" x14ac:dyDescent="0.2">
       <c r="E21" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F21">
         <v>1800</v>
@@ -1830,22 +1905,25 @@
       <c r="I21">
         <v>35</v>
       </c>
-      <c r="J21" s="13">
-        <f>IF(H21+I21&gt;0, (H21/(H21+I21)), "")</f>
+      <c r="J21" s="3">
+        <f t="shared" si="0"/>
         <v>0.53333333333333333</v>
       </c>
       <c r="K21" t="str">
         <f>INDEX(Rang!F:F, MATCH(G21, Rang!G:G, 1))</f>
         <v xml:space="preserve">Master </v>
       </c>
-    </row>
-    <row r="22" spans="5:11" x14ac:dyDescent="0.2">
+      <c r="L21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="5:12" x14ac:dyDescent="0.2">
       <c r="K22" t="str">
         <f>INDEX(Rang!F:F, MATCH(G22, Rang!G:G, 1))</f>
         <v>Quartz IV</v>
       </c>
     </row>
-    <row r="23" spans="5:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="5:12" x14ac:dyDescent="0.2">
       <c r="K23" t="str">
         <f>INDEX(Rang!F:F, MATCH(G23, Rang!G:G, 1))</f>
         <v>Quartz IV</v>
@@ -1902,8 +1980,8 @@
   <sheetPr codeName="Feuil3"/>
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView zoomScale="114" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B5" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1913,291 +1991,298 @@
   <sheetData>
     <row r="2" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F3" s="34" t="s">
+      <c r="F3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="H3" s="35"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="36"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F4" s="37"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="39"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
+      <c r="J4" s="76"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F5" s="37"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="39"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="75"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="76"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="F6" s="37"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="39"/>
+      <c r="F6" s="74"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="75"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="76"/>
     </row>
     <row r="7" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="40"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="42"/>
+      <c r="F7" s="77"/>
+      <c r="G7" s="78"/>
+      <c r="H7" s="78"/>
+      <c r="I7" s="78"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="N8" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="76"/>
+      <c r="N8" s="48" t="s">
+        <v>23</v>
+      </c>
+      <c r="O8" s="49"/>
     </row>
     <row r="9" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N9" s="77"/>
-      <c r="O9" s="78"/>
+      <c r="N9" s="50"/>
+      <c r="O9" s="51"/>
     </row>
     <row r="10" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="N10" s="18" t="s">
+      <c r="N10" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="O10" s="79" t="s">
+      <c r="O10" s="22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="58"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="59"/>
-      <c r="F11" s="19" t="s">
+      <c r="A11" s="60" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="61"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="62"/>
+      <c r="F11" s="82" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="83"/>
+      <c r="I11" s="82" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="20"/>
-      <c r="I11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="20"/>
-      <c r="N11" s="80">
+      <c r="J11" s="83"/>
+      <c r="N11" s="23">
         <v>30</v>
       </c>
-      <c r="O11" s="81">
+      <c r="O11" s="24">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="62"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="22"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="64"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="65"/>
+      <c r="F12" s="84"/>
+      <c r="G12" s="85"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="91"/>
     </row>
     <row r="13" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="62"/>
-      <c r="F13" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="I13" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>5</v>
+      <c r="A13" s="63"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="65"/>
+      <c r="F13" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="62"/>
-      <c r="F14" s="17">
+      <c r="A14" s="63"/>
+      <c r="B14" s="64"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="65"/>
+      <c r="F14" s="5">
         <f>VLOOKUP(F13, Tableau!E10:K24, 2, FALSE)</f>
-        <v>3000</v>
-      </c>
-      <c r="G14" s="18">
+        <v>1000</v>
+      </c>
+      <c r="G14" s="6">
         <f>VLOOKUP(G13, Tableau!E10:K24, 2, FALSE)</f>
         <v>2000</v>
       </c>
-      <c r="I14" s="28">
+      <c r="I14" s="10">
         <f>VLOOKUP(I13, Tableau!E10:K24, 2, FALSE)</f>
-        <v>1800</v>
-      </c>
-      <c r="J14" s="29">
+        <v>2700</v>
+      </c>
+      <c r="J14" s="11">
         <f>VLOOKUP(J13, Tableau!E10:K24, 2, FALSE)</f>
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15" s="60"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="F15" s="30">
+      <c r="A15" s="63"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="65"/>
+      <c r="F15" s="86">
         <f>F14+G14</f>
-        <v>5000</v>
-      </c>
-      <c r="G15" s="31"/>
-      <c r="I15" s="30">
+        <v>3000</v>
+      </c>
+      <c r="G15" s="87"/>
+      <c r="I15" s="86">
         <f>I14+J14</f>
-        <v>2800</v>
-      </c>
-      <c r="J15" s="31"/>
+        <v>5700</v>
+      </c>
+      <c r="J15" s="87"/>
     </row>
     <row r="16" spans="1:15" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="62"/>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="33"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="F16" s="88"/>
+      <c r="G16" s="89"/>
+      <c r="I16" s="88"/>
+      <c r="J16" s="89"/>
     </row>
     <row r="17" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="65"/>
-      <c r="F17" s="14">
+      <c r="A17" s="66"/>
+      <c r="B17" s="67"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="68"/>
+      <c r="F17" s="69">
         <f>1/(1+10^((I15-F15)/2000))</f>
-        <v>0.92641244388242638</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="I17" s="14">
+        <v>4.2758411146536043E-2</v>
+      </c>
+      <c r="G17" s="70"/>
+      <c r="I17" s="69">
         <f>1/(1+10^((F15-I15)/2000))</f>
-        <v>7.3587556117573491E-2</v>
-      </c>
-      <c r="J17" s="15"/>
+        <v>0.957241588853464</v>
+      </c>
+      <c r="J17" s="70"/>
     </row>
     <row r="19" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="20" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F20" s="2" t="str">
+      <c r="F20" s="80" t="str">
         <f>IF(F21&gt;I21,"Victoire","Défaite")</f>
+        <v>Victoire</v>
+      </c>
+      <c r="G20" s="81"/>
+      <c r="I20" s="80" t="str">
+        <f>IF(I21&gt;F21,"Victoire","Défaite")</f>
         <v>Défaite</v>
       </c>
-      <c r="G20" s="3"/>
-      <c r="I20" s="2" t="str">
-        <f>IF(I21&gt;F21,"Victoire","Défaite")</f>
-        <v>Victoire</v>
-      </c>
-      <c r="J20" s="3"/>
+      <c r="J20" s="81"/>
     </row>
     <row r="21" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F21" s="9">
-        <v>5</v>
-      </c>
-      <c r="G21" s="10"/>
-      <c r="I21" s="9">
-        <v>6</v>
-      </c>
-      <c r="J21" s="10"/>
+      <c r="F21" s="52">
+        <v>10</v>
+      </c>
+      <c r="G21" s="53"/>
+      <c r="I21" s="52">
+        <v>9</v>
+      </c>
+      <c r="J21" s="53"/>
     </row>
     <row r="22" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="68"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="12"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="12"/>
+      <c r="A22" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="40"/>
+      <c r="C22" s="40"/>
+      <c r="D22" s="41"/>
+      <c r="F22" s="54"/>
+      <c r="G22" s="55"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="71"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="44"/>
     </row>
     <row r="24" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="71"/>
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="44"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="71"/>
-      <c r="F25" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="G25" s="53"/>
-      <c r="I25" s="52" t="s">
-        <v>18</v>
-      </c>
-      <c r="J25" s="53"/>
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="44"/>
+      <c r="F25" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="57"/>
+      <c r="I25" s="56" t="s">
+        <v>17</v>
+      </c>
+      <c r="J25" s="57"/>
     </row>
     <row r="26" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="71"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="55"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="44"/>
+      <c r="F26" s="58"/>
+      <c r="G26" s="59"/>
+      <c r="I26" s="58"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="71"/>
-      <c r="F27" s="50" t="str">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="44"/>
+      <c r="F27" s="19" t="str">
         <f>F13</f>
-        <v>Kamel</v>
-      </c>
-      <c r="G27" s="48" t="str">
+        <v>lucas</v>
+      </c>
+      <c r="G27" s="17" t="str">
         <f>G13</f>
         <v>Axel</v>
       </c>
-      <c r="I27" s="46" t="str">
+      <c r="I27" s="15" t="str">
         <f>I13</f>
-        <v>Rahul</v>
-      </c>
-      <c r="J27" s="44" t="str">
+        <v>Raoul</v>
+      </c>
+      <c r="J27" s="13" t="str">
         <f>J13</f>
-        <v>Lucas</v>
+        <v>kamel</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
-      <c r="D28" s="74"/>
-      <c r="F28" s="51">
+      <c r="A28" s="45"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="47"/>
+      <c r="F28" s="20">
         <f>F14 + (N11*2) * ((IF(F20= "Victoire", 1,0)) - F17)*(1+(IF(F21&gt;I21,F21-I21,I21-F21)) * 0.05)</f>
-        <v>2941.636016035407</v>
-      </c>
-      <c r="G28" s="49">
+        <v>1060.3062200977683</v>
+      </c>
+      <c r="G28" s="18">
         <f>G14 + (N11*2) * ((IF(F20= "Victoire", 1,0)) - F17)*(1+(IF(F21&gt;I21,F21-I21,I21-F21)) * 0.06)</f>
-        <v>1941.0801685690776</v>
-      </c>
-      <c r="I28" s="47">
+        <v>2060.8805650510803</v>
+      </c>
+      <c r="I28" s="16">
         <f>I14 + (N11*2) * ((IF(I20= "Victoire", 1,0)) - I17)*(1+(IF(F21&gt;I21,F21-I21,I21-F21)) * 0.06)</f>
-        <v>1858.9198314309224</v>
-      </c>
-      <c r="J28" s="45">
+        <v>2639.1194349489197</v>
+      </c>
+      <c r="J28" s="14">
         <f>J14 + (N11*2) * ((IF(I20= "Victoire", 1,0)) - I17)*(1+(IF(F21&gt;I21,F21-I21,I21-F21)) * 0.06)</f>
-        <v>1058.9198314309224</v>
+        <v>2939.1194349489197</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="F3:J7"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="I11:J12"/>
+    <mergeCell ref="I15:J16"/>
     <mergeCell ref="A22:D28"/>
     <mergeCell ref="N8:O9"/>
     <mergeCell ref="F21:G22"/>
@@ -2207,53 +2292,46 @@
     <mergeCell ref="A11:D17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="I17:J17"/>
-    <mergeCell ref="F3:J7"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="F11:G12"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="I11:J12"/>
-    <mergeCell ref="I15:J16"/>
   </mergeCells>
   <conditionalFormatting sqref="F17:G17">
-    <cfRule type="cellIs" dxfId="10" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>0.5</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>0.5</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="greaterThan">
-      <formula>0.5</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I17:J17">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="lessThan">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
-      <formula>0.5</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="lessThan">
       <formula>0.5</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F20:G20">
-    <cfRule type="containsText" dxfId="4" priority="4" operator="containsText" text="Victoire">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="Victoire">
       <formula>NOT(ISERROR(SEARCH("Victoire",F20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" operator="containsText" text="Défaite">
+    <cfRule type="containsText" dxfId="6" priority="5" operator="containsText" text="Défaite">
       <formula>NOT(ISERROR(SEARCH("Défaite",F20)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I17:J17">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThan">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
+      <formula>0.5</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="8" operator="greaterThan">
+      <formula>0.5</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="I20:J20">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="Défaite">
-      <formula>NOT(ISERROR(SEARCH("Défaite",I20)))</formula>
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Defaite">
+      <formula>NOT(ISERROR(SEARCH("Defaite",I20)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Victoire">
       <formula>NOT(ISERROR(SEARCH("Victoire",I20)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="3" operator="containsText" text="Defaite">
-      <formula>NOT(ISERROR(SEARCH("Defaite",I20)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Défaite">
+      <formula>NOT(ISERROR(SEARCH("Défaite",I20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2265,8 +2343,8 @@
   <sheetPr codeName="Feuil4"/>
   <dimension ref="E2:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20:J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2278,138 +2356,138 @@
   <sheetData>
     <row r="2" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="96" t="s">
         <v>2</v>
       </c>
-      <c r="G3" s="94"/>
-      <c r="H3" s="94"/>
-      <c r="I3" s="94"/>
-      <c r="J3" s="94"/>
-      <c r="K3" s="95"/>
+      <c r="G3" s="97"/>
+      <c r="H3" s="97"/>
+      <c r="I3" s="97"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="98"/>
     </row>
     <row r="4" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="97"/>
-      <c r="K4" s="98"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="100"/>
+      <c r="H4" s="100"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="101"/>
     </row>
     <row r="5" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
-      <c r="H5" s="97"/>
-      <c r="I5" s="97"/>
-      <c r="J5" s="97"/>
-      <c r="K5" s="98"/>
+      <c r="F5" s="99"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="101"/>
     </row>
     <row r="6" spans="5:12" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
-      <c r="H6" s="97"/>
-      <c r="I6" s="97"/>
-      <c r="J6" s="97"/>
-      <c r="K6" s="98"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="100"/>
+      <c r="H6" s="100"/>
+      <c r="I6" s="100"/>
+      <c r="J6" s="100"/>
+      <c r="K6" s="101"/>
     </row>
     <row r="7" spans="5:12" ht="17" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="100"/>
-      <c r="I7" s="100"/>
-      <c r="J7" s="100"/>
-      <c r="K7" s="101"/>
+      <c r="F7" s="102"/>
+      <c r="G7" s="103"/>
+      <c r="H7" s="103"/>
+      <c r="I7" s="103"/>
+      <c r="J7" s="103"/>
+      <c r="K7" s="104"/>
     </row>
     <row r="10" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="5:12" x14ac:dyDescent="0.2">
-      <c r="E11" s="102"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="35"/>
+      <c r="F11" s="92" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="93"/>
+      <c r="J11" s="92" t="s">
         <v>20</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="J11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="K11" s="6"/>
-      <c r="L11" s="102"/>
+      <c r="K11" s="93"/>
+      <c r="L11" s="35"/>
     </row>
     <row r="12" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E12" s="103"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="8"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="103"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="95"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="36"/>
     </row>
     <row r="13" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="105" t="str">
+      <c r="E13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="38" t="str">
         <f>MMR!F13</f>
-        <v>Kamel</v>
-      </c>
-      <c r="G13" s="43" t="str">
+        <v>lucas</v>
+      </c>
+      <c r="G13" s="12" t="str">
         <f>MMR!G13</f>
         <v>Axel</v>
       </c>
-      <c r="J13" s="105" t="str">
+      <c r="J13" s="38" t="str">
         <f>MMR!I13</f>
-        <v>Rahul</v>
-      </c>
-      <c r="K13" s="105" t="str">
+        <v>Raoul</v>
+      </c>
+      <c r="K13" s="38" t="str">
         <f>MMR!J13</f>
-        <v>Lucas</v>
-      </c>
-      <c r="L13" s="104" t="s">
-        <v>70</v>
+        <v>kamel</v>
+      </c>
+      <c r="L13" s="37" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E14" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="16">
+      <c r="E14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4">
         <f>MMR!F28</f>
-        <v>2941.636016035407</v>
-      </c>
-      <c r="G14" s="4">
+        <v>1060.3062200977683</v>
+      </c>
+      <c r="G14" s="2">
         <f>MMR!G28</f>
-        <v>1941.0801685690776</v>
-      </c>
-      <c r="J14" s="4">
+        <v>2060.8805650510803</v>
+      </c>
+      <c r="J14" s="2">
         <f>MMR!I28</f>
-        <v>1858.9198314309224</v>
-      </c>
-      <c r="K14" s="4">
+        <v>2639.1194349489197</v>
+      </c>
+      <c r="K14" s="2">
         <f>MMR!J28</f>
-        <v>1058.9198314309224</v>
-      </c>
-      <c r="L14" s="104" t="s">
-        <v>18</v>
+        <v>2939.1194349489197</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="5:12" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="4">
+      <c r="E15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="2">
         <f>VLOOKUP(F13, Tableau!E10:K24, 3, FALSE)</f>
-        <v>1890</v>
-      </c>
-      <c r="G15" s="4">
+        <v>3900</v>
+      </c>
+      <c r="G15" s="2">
         <f>VLOOKUP(G13, Tableau!E10:K24, 3, FALSE)</f>
         <v>200</v>
       </c>
-      <c r="J15" s="4">
+      <c r="J15" s="2">
         <f>VLOOKUP(J13, Tableau!E10:K24, 3, FALSE)</f>
         <v>2976</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="2">
         <f>VLOOKUP(K13, Tableau!E10:K24, 3, FALSE)</f>
-        <v>3900</v>
-      </c>
-      <c r="L15" s="104" t="s">
-        <v>69</v>
+        <v>1890</v>
+      </c>
+      <c r="L15" s="37" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -2427,8 +2505,8 @@
   <sheetPr codeName="Feuil5"/>
   <dimension ref="F2:J43"/>
   <sheetViews>
-    <sheetView zoomScale="106" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:J43"/>
+    <sheetView topLeftCell="A37" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2440,715 +2518,715 @@
   <sheetData>
     <row r="2" spans="6:10" x14ac:dyDescent="0.2">
       <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F3" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I2" t="s">
-        <v>67</v>
-      </c>
-      <c r="J2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="3" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F3" s="56" t="s">
+      <c r="G3" s="21">
+        <v>-250</v>
+      </c>
+      <c r="H3" s="21">
+        <v>99</v>
+      </c>
+      <c r="I3" s="21">
+        <v>-250</v>
+      </c>
+      <c r="J3" s="21">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F4" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="56">
-        <v>-250</v>
-      </c>
-      <c r="H3" s="56">
-        <v>99</v>
-      </c>
-      <c r="I3" s="56">
-        <v>-250</v>
-      </c>
-      <c r="J3" s="56">
+      <c r="G4" s="21">
+        <v>100</v>
+      </c>
+      <c r="H4" s="21">
         <v>199</v>
       </c>
-    </row>
-    <row r="4" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F4" s="56" t="s">
+      <c r="I4" s="21">
+        <v>200</v>
+      </c>
+      <c r="J4" s="21">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="5" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F5" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="21">
+        <v>200</v>
+      </c>
+      <c r="H5" s="21">
+        <v>299</v>
+      </c>
+      <c r="I5" s="21">
+        <v>400</v>
+      </c>
+      <c r="J5" s="21">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="6" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F6" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="G4" s="56">
-        <v>100</v>
-      </c>
-      <c r="H4" s="56">
-        <v>199</v>
-      </c>
-      <c r="I4" s="56">
-        <v>200</v>
-      </c>
-      <c r="J4" s="56">
+      <c r="G6" s="21">
+        <v>300</v>
+      </c>
+      <c r="H6" s="21">
         <v>399</v>
       </c>
-    </row>
-    <row r="5" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F5" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="G5" s="56">
-        <v>200</v>
-      </c>
-      <c r="H5" s="56">
-        <v>299</v>
-      </c>
-      <c r="I5" s="56">
+      <c r="I6" s="21">
+        <v>600</v>
+      </c>
+      <c r="J6" s="21">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="7" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F7" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="25">
         <v>400</v>
       </c>
-      <c r="J5" s="56">
+      <c r="H7" s="25">
+        <v>499</v>
+      </c>
+      <c r="I7" s="25">
+        <v>800</v>
+      </c>
+      <c r="J7" s="25">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F8" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="25">
+        <v>500</v>
+      </c>
+      <c r="H8" s="25">
         <v>599</v>
       </c>
-    </row>
-    <row r="6" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F6" s="56" t="s">
+      <c r="I8" s="25">
+        <v>1000</v>
+      </c>
+      <c r="J8" s="25">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F9" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" s="25">
+        <v>600</v>
+      </c>
+      <c r="H9" s="25">
+        <v>699</v>
+      </c>
+      <c r="I9" s="25">
+        <v>1200</v>
+      </c>
+      <c r="J9" s="25">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F10" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="25">
+        <v>700</v>
+      </c>
+      <c r="H10" s="25">
+        <v>799</v>
+      </c>
+      <c r="I10" s="25">
+        <v>1400</v>
+      </c>
+      <c r="J10" s="25">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F11" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="56">
-        <v>300</v>
-      </c>
-      <c r="H6" s="56">
-        <v>399</v>
-      </c>
-      <c r="I6" s="56">
-        <v>600</v>
-      </c>
-      <c r="J6" s="56">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="7" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F7" s="82" t="s">
+      <c r="G11" s="26">
+        <v>800</v>
+      </c>
+      <c r="H11" s="26">
+        <v>899</v>
+      </c>
+      <c r="I11" s="26">
+        <v>1600</v>
+      </c>
+      <c r="J11" s="26">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F12" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="G12" s="26">
+        <v>900</v>
+      </c>
+      <c r="H12" s="26">
+        <v>999</v>
+      </c>
+      <c r="I12" s="26">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="26">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1000</v>
+      </c>
+      <c r="H13" s="26">
+        <v>1099</v>
+      </c>
+      <c r="I13" s="26">
+        <v>2000</v>
+      </c>
+      <c r="J13" s="26">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F14" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="26">
+        <v>1100</v>
+      </c>
+      <c r="H14" s="26">
+        <v>1199</v>
+      </c>
+      <c r="I14" s="26">
+        <v>2200</v>
+      </c>
+      <c r="J14" s="26">
+        <v>2399</v>
+      </c>
+    </row>
+    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F15" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="82">
-        <v>400</v>
-      </c>
-      <c r="H7" s="82">
-        <v>499</v>
-      </c>
-      <c r="I7" s="82">
-        <v>800</v>
-      </c>
-      <c r="J7" s="82">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="8" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F8" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="G8" s="82">
-        <v>500</v>
-      </c>
-      <c r="H8" s="82">
-        <v>599</v>
-      </c>
-      <c r="I8" s="82">
-        <v>1000</v>
-      </c>
-      <c r="J8" s="82">
-        <v>1199</v>
-      </c>
-    </row>
-    <row r="9" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F9" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="G9" s="82">
-        <v>600</v>
-      </c>
-      <c r="H9" s="82">
-        <v>699</v>
-      </c>
-      <c r="I9" s="82">
+      <c r="G15" s="33">
         <v>1200</v>
       </c>
-      <c r="J9" s="82">
+      <c r="H15" s="33">
+        <v>1299</v>
+      </c>
+      <c r="I15" s="33">
+        <v>2400</v>
+      </c>
+      <c r="J15" s="33">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F16" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="33">
+        <v>1300</v>
+      </c>
+      <c r="H16" s="33">
         <v>1399</v>
       </c>
-    </row>
-    <row r="10" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F10" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="82">
-        <v>700</v>
-      </c>
-      <c r="H10" s="82">
-        <v>799</v>
-      </c>
-      <c r="I10" s="82">
+      <c r="I16" s="33">
+        <v>2600</v>
+      </c>
+      <c r="J16" s="33">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F17" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="33">
         <v>1400</v>
       </c>
-      <c r="J10" s="82">
+      <c r="H17" s="33">
+        <v>1499</v>
+      </c>
+      <c r="I17" s="33">
+        <v>2800</v>
+      </c>
+      <c r="J17" s="33">
+        <v>2999</v>
+      </c>
+    </row>
+    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F18" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1500</v>
+      </c>
+      <c r="H18" s="33">
         <v>1599</v>
       </c>
-    </row>
-    <row r="11" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F11" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="83">
-        <v>800</v>
-      </c>
-      <c r="H11" s="83">
-        <v>899</v>
-      </c>
-      <c r="I11" s="83">
+      <c r="I18" s="33">
+        <v>3000</v>
+      </c>
+      <c r="J18" s="33">
+        <v>3199</v>
+      </c>
+    </row>
+    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F19" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="G19" s="27">
         <v>1600</v>
       </c>
-      <c r="J11" s="83">
+      <c r="H19" s="27">
+        <v>1699</v>
+      </c>
+      <c r="I19" s="27">
+        <v>3200</v>
+      </c>
+      <c r="J19" s="27">
+        <v>3399</v>
+      </c>
+    </row>
+    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F20" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="27">
+        <v>1700</v>
+      </c>
+      <c r="H20" s="27">
         <v>1799</v>
       </c>
-    </row>
-    <row r="12" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F12" s="83" t="s">
-        <v>43</v>
-      </c>
-      <c r="G12" s="83">
-        <v>900</v>
-      </c>
-      <c r="H12" s="83">
-        <v>999</v>
-      </c>
-      <c r="I12" s="83">
+      <c r="I20" s="27">
+        <v>3400</v>
+      </c>
+      <c r="J20" s="27">
+        <v>3599</v>
+      </c>
+    </row>
+    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F21" s="27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" s="27">
         <v>1800</v>
       </c>
-      <c r="J12" s="83">
+      <c r="H21" s="27">
+        <v>1899</v>
+      </c>
+      <c r="I21" s="27">
+        <v>3600</v>
+      </c>
+      <c r="J21" s="27">
+        <v>3799</v>
+      </c>
+    </row>
+    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F22" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G22" s="27">
+        <v>1900</v>
+      </c>
+      <c r="H22" s="27">
         <v>1999</v>
       </c>
-    </row>
-    <row r="13" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F13" s="83" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="83">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="83">
-        <v>1099</v>
-      </c>
-      <c r="I13" s="83">
+      <c r="I22" s="27">
+        <v>3800</v>
+      </c>
+      <c r="J22" s="27">
+        <v>3999</v>
+      </c>
+    </row>
+    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G23" s="28">
         <v>2000</v>
       </c>
-      <c r="J13" s="83">
+      <c r="H23" s="28">
+        <v>2099</v>
+      </c>
+      <c r="I23" s="28">
+        <v>4000</v>
+      </c>
+      <c r="J23" s="28">
+        <v>4199</v>
+      </c>
+    </row>
+    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="28">
+        <v>2100</v>
+      </c>
+      <c r="H24" s="28">
         <v>2199</v>
       </c>
-    </row>
-    <row r="14" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F14" s="83" t="s">
-        <v>45</v>
-      </c>
-      <c r="G14" s="83">
-        <v>1100</v>
-      </c>
-      <c r="H14" s="83">
-        <v>1199</v>
-      </c>
-      <c r="I14" s="83">
+      <c r="I24" s="28">
+        <v>4200</v>
+      </c>
+      <c r="J24" s="28">
+        <v>4399</v>
+      </c>
+    </row>
+    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G25" s="28">
         <v>2200</v>
       </c>
-      <c r="J14" s="83">
+      <c r="H25" s="28">
+        <v>2299</v>
+      </c>
+      <c r="I25" s="28">
+        <v>4400</v>
+      </c>
+      <c r="J25" s="28">
+        <v>4599</v>
+      </c>
+    </row>
+    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="G26" s="28">
+        <v>2300</v>
+      </c>
+      <c r="H26" s="28">
         <v>2399</v>
       </c>
-    </row>
-    <row r="15" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F15" s="90" t="s">
-        <v>34</v>
-      </c>
-      <c r="G15" s="90">
-        <v>1200</v>
-      </c>
-      <c r="H15" s="90">
-        <v>1299</v>
-      </c>
-      <c r="I15" s="90">
+      <c r="I26" s="28">
+        <v>4600</v>
+      </c>
+      <c r="J26" s="28">
+        <v>4799</v>
+      </c>
+    </row>
+    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" s="29">
         <v>2400</v>
       </c>
-      <c r="J15" s="90">
+      <c r="H27" s="29">
+        <v>2499</v>
+      </c>
+      <c r="I27" s="29">
+        <v>4800</v>
+      </c>
+      <c r="J27" s="29">
+        <v>4999</v>
+      </c>
+    </row>
+    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G28" s="29">
+        <v>2500</v>
+      </c>
+      <c r="H28" s="29">
         <v>2599</v>
       </c>
-    </row>
-    <row r="16" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F16" s="90" t="s">
-        <v>46</v>
-      </c>
-      <c r="G16" s="90">
-        <v>1300</v>
-      </c>
-      <c r="H16" s="90">
-        <v>1399</v>
-      </c>
-      <c r="I16" s="90">
+      <c r="I28" s="29">
+        <v>5000</v>
+      </c>
+      <c r="J28" s="29">
+        <v>5199</v>
+      </c>
+    </row>
+    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F29" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="29">
         <v>2600</v>
       </c>
-      <c r="J16" s="90">
+      <c r="H29" s="29">
+        <v>2699</v>
+      </c>
+      <c r="I29" s="29">
+        <v>5200</v>
+      </c>
+      <c r="J29" s="29">
+        <v>5399</v>
+      </c>
+    </row>
+    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F30" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G30" s="29">
+        <v>2700</v>
+      </c>
+      <c r="H30" s="29">
         <v>2799</v>
       </c>
-    </row>
-    <row r="17" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F17" s="90" t="s">
-        <v>47</v>
-      </c>
-      <c r="G17" s="90">
-        <v>1400</v>
-      </c>
-      <c r="H17" s="90">
-        <v>1499</v>
-      </c>
-      <c r="I17" s="90">
+      <c r="I30" s="29">
+        <v>5400</v>
+      </c>
+      <c r="J30" s="29">
+        <v>5599</v>
+      </c>
+    </row>
+    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F31" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="30">
         <v>2800</v>
       </c>
-      <c r="J17" s="90">
+      <c r="H31" s="30">
+        <v>2899</v>
+      </c>
+      <c r="I31" s="30">
+        <v>5600</v>
+      </c>
+      <c r="J31" s="30">
+        <v>5799</v>
+      </c>
+    </row>
+    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F32" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="30">
+        <v>2900</v>
+      </c>
+      <c r="H32" s="30">
         <v>2999</v>
       </c>
-    </row>
-    <row r="18" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F18" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="G18" s="90">
-        <v>1500</v>
-      </c>
-      <c r="H18" s="90">
-        <v>1599</v>
-      </c>
-      <c r="I18" s="90">
+      <c r="I32" s="30">
+        <v>5800</v>
+      </c>
+      <c r="J32" s="30">
+        <v>5999</v>
+      </c>
+    </row>
+    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F33" s="30" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" s="30">
         <v>3000</v>
       </c>
-      <c r="J18" s="90">
+      <c r="H33" s="30">
+        <v>3099</v>
+      </c>
+      <c r="I33" s="30">
+        <v>6000</v>
+      </c>
+      <c r="J33" s="30">
+        <v>6199</v>
+      </c>
+    </row>
+    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F34" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" s="30">
+        <v>3100</v>
+      </c>
+      <c r="H34" s="30">
         <v>3199</v>
       </c>
-    </row>
-    <row r="19" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F19" s="84" t="s">
-        <v>35</v>
-      </c>
-      <c r="G19" s="84">
-        <v>1600</v>
-      </c>
-      <c r="H19" s="84">
-        <v>1699</v>
-      </c>
-      <c r="I19" s="84">
+      <c r="I34" s="30">
+        <v>6200</v>
+      </c>
+      <c r="J34" s="30">
+        <v>6399</v>
+      </c>
+    </row>
+    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F35" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" s="31">
         <v>3200</v>
       </c>
-      <c r="J19" s="84">
+      <c r="H35" s="31">
+        <v>3299</v>
+      </c>
+      <c r="I35" s="31">
+        <v>6400</v>
+      </c>
+      <c r="J35" s="31">
+        <v>6599</v>
+      </c>
+    </row>
+    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F36" s="31" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="31">
+        <v>3300</v>
+      </c>
+      <c r="H36" s="31">
         <v>3399</v>
       </c>
-    </row>
-    <row r="20" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F20" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="G20" s="84">
-        <v>1700</v>
-      </c>
-      <c r="H20" s="84">
-        <v>1799</v>
-      </c>
-      <c r="I20" s="84">
+      <c r="I36" s="31">
+        <v>6600</v>
+      </c>
+      <c r="J36" s="31">
+        <v>6799</v>
+      </c>
+    </row>
+    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F37" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="G37" s="31">
         <v>3400</v>
       </c>
-      <c r="J20" s="84">
+      <c r="H37" s="31">
+        <v>3499</v>
+      </c>
+      <c r="I37" s="31">
+        <v>6800</v>
+      </c>
+      <c r="J37" s="31">
+        <v>6999</v>
+      </c>
+    </row>
+    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F38" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="G38" s="31">
+        <v>3500</v>
+      </c>
+      <c r="H38" s="31">
         <v>3599</v>
       </c>
-    </row>
-    <row r="21" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F21" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="G21" s="84">
-        <v>1800</v>
-      </c>
-      <c r="H21" s="84">
-        <v>1899</v>
-      </c>
-      <c r="I21" s="84">
+      <c r="I38" s="31">
+        <v>7000</v>
+      </c>
+      <c r="J38" s="31">
+        <v>7199</v>
+      </c>
+    </row>
+    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F39" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="32">
         <v>3600</v>
       </c>
-      <c r="J21" s="84">
+      <c r="H39" s="32">
+        <v>3699</v>
+      </c>
+      <c r="I39" s="32">
+        <v>7200</v>
+      </c>
+      <c r="J39" s="32">
+        <v>7399</v>
+      </c>
+    </row>
+    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F40" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="G40" s="32">
+        <v>3700</v>
+      </c>
+      <c r="H40" s="32">
         <v>3799</v>
       </c>
-    </row>
-    <row r="22" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F22" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="G22" s="84">
-        <v>1900</v>
-      </c>
-      <c r="H22" s="84">
-        <v>1999</v>
-      </c>
-      <c r="I22" s="84">
+      <c r="I40" s="32">
+        <v>7400</v>
+      </c>
+      <c r="J40" s="32">
+        <v>7599</v>
+      </c>
+    </row>
+    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F41" s="32" t="s">
+        <v>63</v>
+      </c>
+      <c r="G41" s="32">
         <v>3800</v>
       </c>
-      <c r="J22" s="84">
+      <c r="H41" s="32">
+        <v>3899</v>
+      </c>
+      <c r="I41" s="32">
+        <v>7600</v>
+      </c>
+      <c r="J41" s="32">
+        <v>7799</v>
+      </c>
+    </row>
+    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F42" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G42" s="32">
+        <v>3900</v>
+      </c>
+      <c r="H42" s="32">
         <v>3999</v>
       </c>
-    </row>
-    <row r="23" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F23" s="85" t="s">
-        <v>36</v>
-      </c>
-      <c r="G23" s="85">
-        <v>2000</v>
-      </c>
-      <c r="H23" s="85">
-        <v>2099</v>
-      </c>
-      <c r="I23" s="85">
+      <c r="I42" s="32">
+        <v>7800</v>
+      </c>
+      <c r="J42" s="32">
+        <v>7999</v>
+      </c>
+    </row>
+    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
+      <c r="F43" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="G43" s="34">
         <v>4000</v>
       </c>
-      <c r="J23" s="85">
-        <v>4199</v>
-      </c>
-    </row>
-    <row r="24" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F24" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="85">
-        <v>2100</v>
-      </c>
-      <c r="H24" s="85">
-        <v>2199</v>
-      </c>
-      <c r="I24" s="85">
-        <v>4200</v>
-      </c>
-      <c r="J24" s="85">
-        <v>4399</v>
-      </c>
-    </row>
-    <row r="25" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F25" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="85">
-        <v>2200</v>
-      </c>
-      <c r="H25" s="85">
-        <v>2299</v>
-      </c>
-      <c r="I25" s="85">
-        <v>4400</v>
-      </c>
-      <c r="J25" s="85">
-        <v>4599</v>
-      </c>
-    </row>
-    <row r="26" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F26" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="G26" s="85">
-        <v>2300</v>
-      </c>
-      <c r="H26" s="85">
-        <v>2399</v>
-      </c>
-      <c r="I26" s="85">
-        <v>4600</v>
-      </c>
-      <c r="J26" s="85">
-        <v>4799</v>
-      </c>
-    </row>
-    <row r="27" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F27" s="86" t="s">
-        <v>37</v>
-      </c>
-      <c r="G27" s="86">
-        <v>2400</v>
-      </c>
-      <c r="H27" s="86">
-        <v>2499</v>
-      </c>
-      <c r="I27" s="86">
-        <v>4800</v>
-      </c>
-      <c r="J27" s="86">
-        <v>4999</v>
-      </c>
-    </row>
-    <row r="28" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F28" s="86" t="s">
-        <v>54</v>
-      </c>
-      <c r="G28" s="86">
-        <v>2500</v>
-      </c>
-      <c r="H28" s="86">
-        <v>2599</v>
-      </c>
-      <c r="I28" s="86">
-        <v>5000</v>
-      </c>
-      <c r="J28" s="86">
-        <v>5199</v>
-      </c>
-    </row>
-    <row r="29" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F29" s="86" t="s">
-        <v>55</v>
-      </c>
-      <c r="G29" s="86">
-        <v>2600</v>
-      </c>
-      <c r="H29" s="86">
-        <v>2699</v>
-      </c>
-      <c r="I29" s="86">
-        <v>5200</v>
-      </c>
-      <c r="J29" s="86">
-        <v>5399</v>
-      </c>
-    </row>
-    <row r="30" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F30" s="86" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="86">
-        <v>2700</v>
-      </c>
-      <c r="H30" s="86">
-        <v>2799</v>
-      </c>
-      <c r="I30" s="86">
-        <v>5400</v>
-      </c>
-      <c r="J30" s="86">
-        <v>5599</v>
-      </c>
-    </row>
-    <row r="31" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F31" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="G31" s="87">
-        <v>2800</v>
-      </c>
-      <c r="H31" s="87">
-        <v>2899</v>
-      </c>
-      <c r="I31" s="87">
-        <v>5600</v>
-      </c>
-      <c r="J31" s="87">
-        <v>5799</v>
-      </c>
-    </row>
-    <row r="32" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F32" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="G32" s="87">
-        <v>2900</v>
-      </c>
-      <c r="H32" s="87">
-        <v>2999</v>
-      </c>
-      <c r="I32" s="87">
-        <v>5800</v>
-      </c>
-      <c r="J32" s="87">
-        <v>5999</v>
-      </c>
-    </row>
-    <row r="33" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F33" s="87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G33" s="87">
-        <v>3000</v>
-      </c>
-      <c r="H33" s="87">
-        <v>3099</v>
-      </c>
-      <c r="I33" s="87">
-        <v>6000</v>
-      </c>
-      <c r="J33" s="87">
-        <v>6199</v>
-      </c>
-    </row>
-    <row r="34" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F34" s="87" t="s">
-        <v>59</v>
-      </c>
-      <c r="G34" s="87">
-        <v>3100</v>
-      </c>
-      <c r="H34" s="87">
-        <v>3199</v>
-      </c>
-      <c r="I34" s="87">
-        <v>6200</v>
-      </c>
-      <c r="J34" s="87">
-        <v>6399</v>
-      </c>
-    </row>
-    <row r="35" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F35" s="88" t="s">
-        <v>39</v>
-      </c>
-      <c r="G35" s="88">
-        <v>3200</v>
-      </c>
-      <c r="H35" s="88">
-        <v>3299</v>
-      </c>
-      <c r="I35" s="88">
-        <v>6400</v>
-      </c>
-      <c r="J35" s="88">
-        <v>6599</v>
-      </c>
-    </row>
-    <row r="36" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F36" s="88" t="s">
-        <v>60</v>
-      </c>
-      <c r="G36" s="88">
-        <v>3300</v>
-      </c>
-      <c r="H36" s="88">
-        <v>3399</v>
-      </c>
-      <c r="I36" s="88">
-        <v>6600</v>
-      </c>
-      <c r="J36" s="88">
-        <v>6799</v>
-      </c>
-    </row>
-    <row r="37" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F37" s="88" t="s">
-        <v>61</v>
-      </c>
-      <c r="G37" s="88">
-        <v>3400</v>
-      </c>
-      <c r="H37" s="88">
-        <v>3499</v>
-      </c>
-      <c r="I37" s="88">
-        <v>6800</v>
-      </c>
-      <c r="J37" s="88">
-        <v>6999</v>
-      </c>
-    </row>
-    <row r="38" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F38" s="88" t="s">
-        <v>62</v>
-      </c>
-      <c r="G38" s="88">
-        <v>3500</v>
-      </c>
-      <c r="H38" s="88">
-        <v>3599</v>
-      </c>
-      <c r="I38" s="88">
-        <v>7000</v>
-      </c>
-      <c r="J38" s="88">
-        <v>7199</v>
-      </c>
-    </row>
-    <row r="39" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F39" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="G39" s="89">
-        <v>3600</v>
-      </c>
-      <c r="H39" s="89">
-        <v>3699</v>
-      </c>
-      <c r="I39" s="89">
-        <v>7200</v>
-      </c>
-      <c r="J39" s="89">
-        <v>7399</v>
-      </c>
-    </row>
-    <row r="40" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F40" s="89" t="s">
-        <v>63</v>
-      </c>
-      <c r="G40" s="89">
-        <v>3700</v>
-      </c>
-      <c r="H40" s="89">
-        <v>3799</v>
-      </c>
-      <c r="I40" s="89">
-        <v>7400</v>
-      </c>
-      <c r="J40" s="89">
-        <v>7599</v>
-      </c>
-    </row>
-    <row r="41" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F41" s="89" t="s">
-        <v>64</v>
-      </c>
-      <c r="G41" s="89">
-        <v>3800</v>
-      </c>
-      <c r="H41" s="91">
-        <v>3899</v>
-      </c>
-      <c r="I41" s="89">
-        <v>7600</v>
-      </c>
-      <c r="J41" s="89">
-        <v>7799</v>
-      </c>
-    </row>
-    <row r="42" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F42" s="89" t="s">
-        <v>65</v>
-      </c>
-      <c r="G42" s="89">
-        <v>3900</v>
-      </c>
-      <c r="H42" s="89">
-        <v>3999</v>
-      </c>
-      <c r="I42" s="89">
-        <v>7800</v>
-      </c>
-      <c r="J42" s="89">
-        <v>7999</v>
-      </c>
-    </row>
-    <row r="43" spans="6:10" x14ac:dyDescent="0.2">
-      <c r="F43" s="92" t="s">
-        <v>66</v>
-      </c>
-      <c r="G43" s="92">
-        <v>4000</v>
-      </c>
-      <c r="H43" s="92">
+      <c r="H43" s="34">
         <v>4099</v>
       </c>
-      <c r="I43" s="92">
+      <c r="I43" s="34">
         <v>8000</v>
       </c>
-      <c r="J43" s="92">
+      <c r="J43" s="34">
         <v>8199</v>
       </c>
     </row>
